--- a/data-science/the-state-of-our-world-in-2023/resources/Indicator_List.xlsx
+++ b/data-science/the-state-of-our-world-in-2023/resources/Indicator_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Professional Projects\A Journey Through Data Science\Guided Projects\data-science\the-state-of-our-world-in-2023\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12872140-0742-4630-B2DF-089174D2B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C724B-9EE9-48E0-BCDF-0A876B396787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3F9D3A9-BB54-4DB9-8C51-B52D23334943}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="456">
   <si>
     <t>Subject</t>
   </si>
@@ -6923,8 +6923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB559E6-B269-4BF5-84E4-C6BF53ADB224}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C57" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10790,6 +10790,12 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C109" s="2">
         <v>8</v>
       </c>

--- a/data-science/the-state-of-our-world-in-2023/resources/Indicator_List.xlsx
+++ b/data-science/the-state-of-our-world-in-2023/resources/Indicator_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Professional Projects\A Journey Through Data Science\Guided Projects\data-science\the-state-of-our-world-in-2023\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C724B-9EE9-48E0-BCDF-0A876B396787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF615DA-434F-4C41-B514-B5FEC08440AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3F9D3A9-BB54-4DB9-8C51-B52D23334943}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="457">
   <si>
     <t>Subject</t>
   </si>
@@ -1408,6 +1408,9 @@
   </si>
   <si>
     <t>GDP_Nominal</t>
+  </si>
+  <si>
+    <t>UNESCO</t>
   </si>
 </sst>
 </file>
@@ -6923,8 +6926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB559E6-B269-4BF5-84E4-C6BF53ADB224}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:B109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G82" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10535,6 +10538,9 @@
       </c>
       <c r="I100" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">

--- a/data-science/the-state-of-our-world-in-2023/resources/Indicator_List.xlsx
+++ b/data-science/the-state-of-our-world-in-2023/resources/Indicator_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Professional Projects\A Journey Through Data Science\Guided Projects\data-science\the-state-of-our-world-in-2023\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF615DA-434F-4C41-B514-B5FEC08440AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169E986-3EEA-4E39-9380-AECB27255473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3F9D3A9-BB54-4DB9-8C51-B52D23334943}"/>
   </bookViews>
@@ -6926,8 +6926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB559E6-B269-4BF5-84E4-C6BF53ADB224}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G82" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G45" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
